--- a/attendance-files/HRM/HRM (E) Attendance Sheet.xlsx
+++ b/attendance-files/HRM/HRM (E) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="170">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>21</v>
@@ -1703,7 +1703,9 @@
       <c r="K8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="30"/>
+      <c r="L8" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="M8" s="37" t="s">
         <v>20</v>
       </c>

--- a/attendance-files/HRM/HRM (E) Attendance Sheet.xlsx
+++ b/attendance-files/HRM/HRM (E) Attendance Sheet.xlsx
@@ -2322,11 +2322,11 @@
       </c>
       <c r="E18" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18" s="36" t="s">
         <v>20</v>
@@ -2356,7 +2356,7 @@
         <v>21</v>
       </c>
       <c r="P18" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="38"/>
       <c r="R18" s="38"/>
@@ -2578,11 +2578,11 @@
       </c>
       <c r="E22" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G22" s="36" t="s">
         <v>21</v>
@@ -2612,7 +2612,7 @@
         <v>21</v>
       </c>
       <c r="P22" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="38"/>
       <c r="R22" s="38"/>
